--- a/Lab01/Lab01.xlsx
+++ b/Lab01/Lab01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Digital-Design-Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Digital-Design-Software\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3311C768-8A0F-453D-B869-D06765CA9131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6A3819-EE25-448D-8E10-52C96AC0DF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5F63A96-C878-4B8E-A8CE-2486E55E9146}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Q &lt;= A and B and C and D;</t>
+  </si>
+  <si>
+    <t>Q &lt;= (A and B) or (C and not B);</t>
   </si>
 </sst>
 </file>
@@ -124,12 +127,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -141,12 +141,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% — акцент1" xfId="1" builtinId="32"/>
@@ -465,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5E7E01-D88A-4060-A8A0-5B7288296F2C}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,321 +481,445 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>100</v>
+      </c>
+      <c r="I11" s="5">
+        <v>50</v>
+      </c>
+      <c r="J11" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>200</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>100</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>50</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lab01/Lab01.xlsx
+++ b/Lab01/Lab01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Digital-Design-Software\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6A3819-EE25-448D-8E10-52C96AC0DF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7999C6F-66F3-46EA-BB64-3850EB13749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5F63A96-C878-4B8E-A8CE-2486E55E9146}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>A</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Q &lt;= (A and B) or (C and not B);</t>
+  </si>
+  <si>
+    <t>Q &lt;= (A and B) or (C and not B); NQ = not Q</t>
+  </si>
+  <si>
+    <t>NQ</t>
   </si>
 </sst>
 </file>
@@ -144,14 +150,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% — акцент1" xfId="1" builtinId="32"/>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5E7E01-D88A-4060-A8A0-5B7288296F2C}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,22 +487,29 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -524,8 +537,23 @@
       <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -541,20 +569,35 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -570,20 +613,35 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>0</v>
       </c>
@@ -599,20 +657,35 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>0</v>
       </c>
@@ -628,20 +701,35 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>0</v>
       </c>
@@ -657,20 +745,35 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>0</v>
       </c>
@@ -686,20 +789,35 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>0</v>
       </c>
@@ -715,20 +833,35 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>0</v>
       </c>
@@ -744,20 +877,35 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -782,8 +930,17 @@
       <c r="J11" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N11" s="5">
+        <v>100</v>
+      </c>
+      <c r="O11" s="5">
+        <v>50</v>
+      </c>
+      <c r="P11" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -800,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -817,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -834,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -851,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -917,9 +1074,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="H1:K1"/>
+    <mergeCell ref="N1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lab01/Lab01.xlsx
+++ b/Lab01/Lab01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Digital-Design-Software\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7999C6F-66F3-46EA-BB64-3850EB13749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D567435-DDB0-4D81-B2B4-4FA909C93453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5F63A96-C878-4B8E-A8CE-2486E55E9146}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>A</t>
   </si>
@@ -61,6 +61,25 @@
   </si>
   <si>
     <t>NQ</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q1 &lt;= A when S = '0' else X; Q2 &lt;= B when S = '0' else Y;
+	Q2 &lt;= B when S = '0' else Y;</t>
   </si>
 </sst>
 </file>
@@ -476,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5E7E01-D88A-4060-A8A0-5B7288296F2C}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +506,7 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -495,21 +514,30 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,35 +553,56 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -569,35 +618,56 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
       <c r="H3" s="6">
         <v>0</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
       </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -613,35 +683,56 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
       <c r="H4" s="6">
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>1</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>0</v>
       </c>
@@ -657,35 +748,56 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
       <c r="H5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>0</v>
       </c>
@@ -701,35 +813,56 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
       <c r="H6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>1</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>0</v>
       </c>
@@ -745,35 +878,56 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
       <c r="H7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>0</v>
       </c>
@@ -789,35 +943,56 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
       <c r="H8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>1</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>0</v>
       </c>
@@ -833,35 +1008,56 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>1</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>0</v>
       </c>
@@ -877,35 +1073,56 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
       <c r="H10" s="6">
         <v>1</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
       </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>1</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -921,26 +1138,47 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
+      <c r="G11" s="5">
+        <v>100</v>
+      </c>
       <c r="H11" s="5">
+        <v>50</v>
+      </c>
+      <c r="I11" s="5">
+        <v>25</v>
+      </c>
+      <c r="L11" s="5">
         <v>100</v>
       </c>
-      <c r="I11" s="5">
+      <c r="M11" s="5">
         <v>50</v>
       </c>
-      <c r="J11" s="5">
+      <c r="N11" s="5">
         <v>25</v>
       </c>
-      <c r="N11" s="5">
-        <v>100</v>
-      </c>
-      <c r="O11" s="5">
-        <v>50</v>
-      </c>
-      <c r="P11" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -956,8 +1194,29 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -973,8 +1232,29 @@
       <c r="E13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -990,8 +1270,29 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>1</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="W14" s="3">
+        <v>1</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1007,8 +1308,29 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1024,8 +1346,29 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1041,8 +1384,29 @@
       <c r="E17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1058,8 +1422,29 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
+        <v>1</v>
+      </c>
+      <c r="U18" s="4">
+        <v>1</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>200</v>
       </c>
@@ -1072,12 +1457,396 @@
       <c r="D19" s="5">
         <v>25</v>
       </c>
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>1</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>1</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R23" s="4">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>1</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>1</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R26" s="4">
+        <v>1</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>1</v>
+      </c>
+      <c r="U26" s="4">
+        <v>1</v>
+      </c>
+      <c r="V26" s="4">
+        <v>1</v>
+      </c>
+      <c r="W26" s="3">
+        <v>1</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R27" s="4">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>1</v>
+      </c>
+      <c r="W28" s="3">
+        <v>1</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R29" s="4">
+        <v>1</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R30" s="4">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>1</v>
+      </c>
+      <c r="V30" s="4">
+        <v>1</v>
+      </c>
+      <c r="W30" s="3">
+        <v>1</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R31" s="4">
+        <v>1</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R32" s="4">
+        <v>1</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
+      <c r="T32" s="4">
+        <v>1</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
+        <v>1</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="18:24" x14ac:dyDescent="0.3">
+      <c r="R33" s="4">
+        <v>1</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
+      <c r="T33" s="4">
+        <v>1</v>
+      </c>
+      <c r="U33" s="4">
+        <v>1</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="18:24" x14ac:dyDescent="0.3">
+      <c r="R34" s="4">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4">
+        <v>1</v>
+      </c>
+      <c r="T34" s="4">
+        <v>1</v>
+      </c>
+      <c r="U34" s="4">
+        <v>1</v>
+      </c>
+      <c r="V34" s="4">
+        <v>1</v>
+      </c>
+      <c r="W34" s="3">
+        <v>1</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="18:24" x14ac:dyDescent="0.3">
+      <c r="R35" s="5">
+        <v>400</v>
+      </c>
+      <c r="S35" s="5">
+        <v>200</v>
+      </c>
+      <c r="T35" s="5">
+        <v>100</v>
+      </c>
+      <c r="U35" s="5">
+        <v>50</v>
+      </c>
+      <c r="V35" s="5">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="R1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lab01/Lab01.xlsx
+++ b/Lab01/Lab01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Digital-Design-Software\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D567435-DDB0-4D81-B2B4-4FA909C93453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9A6D88-72A4-485A-9E61-7121E1C5961D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5F63A96-C878-4B8E-A8CE-2486E55E9146}"/>
   </bookViews>
@@ -78,8 +78,7 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>Q1 &lt;= A when S = '0' else X; Q2 &lt;= B when S = '0' else Y;
-	Q2 &lt;= B when S = '0' else Y;</t>
+    <t>Q1 &lt;= A when S = '0' else X; Q2 &lt;= B when S = '0' else Y;</t>
   </si>
 </sst>
 </file>
@@ -498,7 +497,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
